--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -115,7 +115,7 @@
     <t>12345678910</t>
   </si>
   <si>
-    <t>Racist</t>
+    <t>Racist (mahilig sa race)</t>
   </si>
   <si>
     <t>1</t>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>ID Number</t>
   </si>
@@ -115,7 +115,7 @@
     <t>12345678910</t>
   </si>
   <si>
-    <t>Racist (mahilig sa race)</t>
+    <t>racer</t>
   </si>
   <si>
     <t>1</t>
@@ -125,6 +125,75 @@
   </si>
   <si>
     <t>jabi</t>
+  </si>
+  <si>
+    <t>512579</t>
+  </si>
+  <si>
+    <t>06546546546</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>172078</t>
+  </si>
+  <si>
+    <t>Attendee</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>404545</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasda</t>
+  </si>
+  <si>
+    <t>127933</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>674786</t>
+  </si>
+  <si>
+    <t>dfgdsg</t>
+  </si>
+  <si>
+    <t>dfsfd</t>
+  </si>
+  <si>
+    <t>ghhfghfgh</t>
+  </si>
+  <si>
+    <t>7876786</t>
+  </si>
+  <si>
+    <t>ggthfgh</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>dsgdgdfsgf</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -471,7 +540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -625,6 +694,168 @@
         <v>36</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,121 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>271363</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>dfsfdsa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>dfsf</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>dfsfsdf</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0996787</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>fdgdfgfg</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Muslim</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>wed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>877656</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>garcia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,6 +1467,222 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>541360</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>134150</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>INC</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>858794</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,6 +1683,150 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>979277</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>user@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12311113213</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>asasdasdasd</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>asdad</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>374311</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>aklsdjlaskjdlasdasd</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>asdasdasdasd</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jayvee@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1827,6 +1827,78 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>704525</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>dada</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>pineda</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>kyla@gmail.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>237826</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>filipino</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>asdddd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,6 +1899,78 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>178561</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>mark</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>llanora</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ll@gmail.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>09914408221</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>fusghs</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>hfbhs</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>mark</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1971,6 +1971,78 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>622229</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>kyla</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>pineda</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>asdhads@gmail.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>09182388232</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>filipino</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>kyadl</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>sadasd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,6 +2043,78 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>671545</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2115,6 +2115,76 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>130239</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>12</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2185,6 +2185,216 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>504837</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>23423423423</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>asdasdasdasd</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Catholic</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>67</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>asasasdasds</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>158425</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sadasdasd</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>as@gmail.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>31432423423</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>dsfsdfdswfs</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>INC</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>34</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>sdfsdfsdfsdfsdf</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>329339</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>aas</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>asdasda</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>sasd@gmail.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12341134223</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>sdfsdfdsfsd</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>INC</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>213</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>asdasdasdasdasda</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2395,6 +2395,216 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>988457</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>asdasdasda</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sasdasdasdasd</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>sadasdas@gmail.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>42323423423</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sdfsdfsdfsdf</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>INC</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>324</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>sdfsdfdssdfsdfsdfsd</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>698281</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>23234232434</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>asdasdasdasdasd</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>INC</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>213</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>asdasdasdasdasdas</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>aaaaaaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>425419</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>saa</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>asdsadasd</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>sfdsfsd@gmail.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>23342342342</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>dsfsdfdsfsdfsdfds</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>INC</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>175</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>rfdgdfgdfgfdgdfsgdsfgsdfgsdf</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>aaaaaaaa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2605,6 +2605,76 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>990210</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facilitator</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>78908908908</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>gujkhjkyhjghk</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Muslim</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>77</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>hhhhhhhhhhhh</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>hhhhhhhh</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>Kanal</t>
+          <t>Kantutan Street Lucena City</t>
         </is>
       </c>
       <c r="N3" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>Kantutan Street Lucena City</t>
+          <t>Yawa Street Lucena City</t>
         </is>
       </c>
       <c r="N3" s="2" t="inlineStr">

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>gads</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">

--- a/AccountDatabase.xlsx
+++ b/AccountDatabase.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2675,6 +2675,76 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>306915</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Attendee</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>attendee</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>attendee@gmail.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>09942412341</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Filipino</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>INC</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>32</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>reddot lucena city</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
